--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseantonio/Documents/GitHub/Projeto-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5744474-10D5-6046-AAF5-B22A140C2AF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A297C89-F2BE-AA4E-8D7B-B43D92B38A5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1498,7 +1498,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1521,20 +1521,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1545,6 +1605,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7AAA8A0-90F9-AB43-86A8-70BB62F720D9}" name="Tabela3" displayName="Tabela3" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:B1048576" xr:uid="{185EFB53-BEB5-D24B-97C1-D6383D3CCB20}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A0C010B2-254A-7B41-AED5-AEEC17709CAF}" name="Treinamento"/>
+    <tableColumn id="2" xr3:uid="{B2767DF9-8451-A948-B81B-CB1306A25696}" name="Classificação"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,21 +1941,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="162.83203125" customWidth="1"/>
-    <col min="2" max="3" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D1" t="s">
@@ -1931,51 +2003,81 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3414,6 +3516,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,29 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseantonio/Documents/GitHub/Projeto-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A297C89-F2BE-AA4E-8D7B-B43D92B38A5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEB7E9-E3E4-394A-9D28-5685FD35D893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="437">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
+    <t>Classificação</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
     <t>o preço de tesla coloca ele como um carro de luxo. https://t.co/wlwyutg8aw</t>
+  </si>
+  <si>
+    <t>Relevante:</t>
   </si>
   <si>
     <t>bateria da tesla pode durar mais de 1 milhão de quilômetros
 https://t.co/nbn6mttlxd https://t.co/oaakge0alg</t>
+  </si>
+  <si>
+    <t>Irrelevante:</t>
   </si>
   <si>
     <t>@tesla_25 já está</t>
@@ -1347,8 +1367,7 @@
     <t>ja ficou com alguem dentro do tesla? — nem dentro, nem fora, em lugar nenhum , eu sou bv https://t.co/jgvp8j2kb9</t>
   </si>
   <si>
-    <t>o putinismo nunca perde tempo com prosa desinteressada, mas não deixa de ser uma perspectiva da coisa que convém conhecer.
-norway’s electric car miracle is a smug national fraud built on subsidizing rich people with teslas — rt world news https://t.co/s9kl7iksj2</t>
+    <t>o putinismo nunca perde tempo com prosa desinteressada, mas não deixa de ser uma perspectiva da coisa que convém conhecer.</t>
   </si>
   <si>
     <t>nikola tesla não leia isso ok</t>
@@ -1456,24 +1475,12 @@
   <si>
     <t>@lolaescreva @margare77711844 aeeee até que enfim um país sério!</t>
   </si>
-  <si>
-    <t>Legenda:</t>
-  </si>
-  <si>
-    <t>Relevante:</t>
-  </si>
-  <si>
-    <t>Irrelevante:</t>
-  </si>
-  <si>
-    <t>Classificação</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,13 +1496,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1538,7 +1567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1546,11 +1575,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1580,20 +1627,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1608,7 +1641,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7AAA8A0-90F9-AB43-86A8-70BB62F720D9}" name="Tabela3" displayName="Tabela3" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7AAA8A0-90F9-AB43-86A8-70BB62F720D9}" name="Tabela3" displayName="Tabela3" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:B1048576" xr:uid="{185EFB53-BEB5-D24B-97C1-D6383D3CCB20}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A0C010B2-254A-7B41-AED5-AEEC17709CAF}" name="Treinamento"/>
@@ -1939,15 +1972,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.83203125" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
@@ -1957,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>436</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1979,13 +2012,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1993,7 +2026,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2001,7 +2034,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2009,7 +2042,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2017,7 +2050,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2025,7 +2058,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2033,7 +2066,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2041,7 +2074,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2049,7 +2082,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2057,7 +2090,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -2065,7 +2098,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2073,7 +2106,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2081,1437 +2114,2303 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>85</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>86</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>94</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>97</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>101</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>107</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>110</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>111</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>112</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>113</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>79</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>120</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>121</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>122</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>123</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>125</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>126</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>127</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>128</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>130</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>132</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>133</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>135</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>136</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>137</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>138</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>139</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>142</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>143</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>145</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>146</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>147</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>150</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>151</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>154</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>156</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>157</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>158</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>159</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>160</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>161</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>162</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>163</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>164</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>164</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>166</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>8</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>167</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>171</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>172</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>173</v>
+      </c>
+      <c r="B201" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>174</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>175</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>176</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>177</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>178</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>179</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>180</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>181</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>182</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>183</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>184</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>185</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>74</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>186</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>187</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>188</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>189</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>190</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>191</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>192</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>193</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>194</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>8</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>195</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>8</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>196</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="B230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>197</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>198</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>199</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>46</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>200</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>201</v>
+      </c>
+      <c r="B236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>202</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>203</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>204</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>205</v>
+      </c>
+      <c r="B240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>206</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>207</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>208</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>209</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>210</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>211</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>212</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="B248">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>213</v>
+      </c>
+      <c r="B249">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>214</v>
+      </c>
+      <c r="B250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>215</v>
+      </c>
+      <c r="B251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>216</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>217</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>218</v>
+      </c>
+      <c r="B254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>219</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>220</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>221</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>222</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>223</v>
+      </c>
+      <c r="B259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>224</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>225</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>226</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>227</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>228</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>229</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>230</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>231</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>232</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>233</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>234</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>236</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>237</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>238</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>239</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>240</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>241</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>242</v>
+      </c>
+      <c r="B278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>243</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>244</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>245</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>246</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>247</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>248</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>249</v>
+      </c>
+      <c r="B285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>250</v>
+      </c>
+      <c r="B286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>251</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3527,32 +4426,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E3"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -3560,13 +4463,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -3574,7 +4477,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3582,7 +4485,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3590,7 +4493,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3598,7 +4501,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -3606,7 +4509,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3614,7 +4517,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3622,7 +4525,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3630,7 +4533,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3638,7 +4541,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3646,7 +4549,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3654,7 +4557,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -3662,7 +4565,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3670,7 +4573,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3678,7 +4581,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3686,7 +4589,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3694,7 +4597,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -3702,7 +4605,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3710,7 +4613,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3718,7 +4621,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3726,7 +4629,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3734,7 +4637,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -3742,7 +4645,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3750,7 +4653,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3758,7 +4661,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3766,7 +4669,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3774,7 +4677,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -3782,7 +4685,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3790,7 +4693,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3798,7 +4701,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3806,7 +4709,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3814,7 +4717,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3822,7 +4725,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -3830,7 +4733,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3838,7 +4741,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3846,7 +4749,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3854,7 +4757,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3862,7 +4765,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3870,7 +4773,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3878,7 +4781,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3886,7 +4789,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3894,7 +4797,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -3902,7 +4805,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -3910,7 +4813,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -3918,7 +4821,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3926,7 +4829,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3934,7 +4837,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -3942,7 +4845,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -3950,760 +4853,1435 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>303</v>
+        <v>307</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>305</v>
+        <v>309</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>306</v>
+        <v>310</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>307</v>
+        <v>311</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>308</v>
+        <v>312</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>309</v>
+        <v>313</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+        <v>380</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
+        <v>387</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>388</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>389</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>390</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>391</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>392</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>393</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>395</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>396</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>397</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>398</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>399</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>401</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>402</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>403</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>404</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>405</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>406</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>407</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>408</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>409</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>410</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>411</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>412</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>413</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>414</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>415</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>417</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>418</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>419</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>420</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="B200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>432</v>
+        <v>436</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051D982E912A754494678B8ABAB663C4" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1fbf94b38057d61dcba8d547b9e5136">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8cc57dda-952e-49e8-b456-6ad246116404" xmlns:ns4="a2591933-53ea-4cab-8f6c-7f247c1ec347" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="27faeee9b937cdfd67f030509366c9e2" ns3:_="" ns4:_="">
+    <xsd:import namespace="8cc57dda-952e-49e8-b456-6ad246116404"/>
+    <xsd:import namespace="a2591933-53ea-4cab-8f6c-7f247c1ec347"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8cc57dda-952e-49e8-b456-6ad246116404" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a2591933-53ea-4cab-8f6c-7f247c1ec347" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D98755C-79F9-4447-8D8A-EFA6D4DD66AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8cc57dda-952e-49e8-b456-6ad246116404"/>
+    <ds:schemaRef ds:uri="a2591933-53ea-4cab-8f6c-7f247c1ec347"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93FC51A9-F6BF-4E84-8BE0-34C374C2EFEE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFB985-A0F1-416C-A873-B11530978428}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tesla.xlsx
+++ b/tesla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseantonio/Documents/GitHub/Projeto-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DEB7E9-E3E4-394A-9D28-5685FD35D893}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37A7DA-CBE1-894F-8ECA-0E99FA6849D2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1480,7 +1480,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1504,30 +1504,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1550,40 +1536,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1641,13 +1612,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7AAA8A0-90F9-AB43-86A8-70BB62F720D9}" name="Tabela3" displayName="Tabela3" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D7AAA8A0-90F9-AB43-86A8-70BB62F720D9}" name="Tabela3" displayName="Tabela3" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:B1048576" xr:uid="{185EFB53-BEB5-D24B-97C1-D6383D3CCB20}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0C010B2-254A-7B41-AED5-AEEC17709CAF}" name="Treinamento"/>
+    <tableColumn id="1" xr3:uid="{A0C010B2-254A-7B41-AED5-AEEC17709CAF}" name="Treinamento" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{B2767DF9-8451-A948-B81B-CB1306A25696}" name="Classificação"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1974,22 +1945,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E302"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1997,7 +1968,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -2011,7 +1982,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -2025,7 +1996,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4">
@@ -2033,7 +2004,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5">
@@ -2041,7 +2012,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B6">
@@ -2049,7 +2020,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -2057,7 +2028,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -2065,7 +2036,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -2073,7 +2044,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -2081,7 +2052,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -2089,7 +2060,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -2097,7 +2068,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -2105,7 +2076,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -2113,7 +2084,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15">
@@ -2121,7 +2092,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16">
@@ -2129,7 +2100,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B17">
@@ -2137,7 +2108,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -2145,7 +2116,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -2153,7 +2124,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -2161,7 +2132,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -2169,7 +2140,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B22">
@@ -2177,7 +2148,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -2185,7 +2156,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -2193,7 +2164,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -2201,7 +2172,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -2209,7 +2180,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -2217,7 +2188,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -2225,7 +2196,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -2233,7 +2204,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -2241,7 +2212,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -2249,7 +2220,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -2257,7 +2228,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -2265,7 +2236,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -2273,7 +2244,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -2281,7 +2252,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -2289,7 +2260,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -2297,7 +2268,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -2305,7 +2276,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -2313,7 +2284,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -2321,7 +2292,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -2329,7 +2300,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -2337,7 +2308,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B43">
@@ -2345,7 +2316,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B44">
@@ -2353,7 +2324,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B45">
@@ -2361,7 +2332,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B46">
@@ -2369,7 +2340,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B47">
@@ -2377,7 +2348,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B48">
@@ -2385,7 +2356,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B49">
@@ -2393,7 +2364,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B50">
@@ -2401,7 +2372,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B51">
@@ -2409,7 +2380,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B52">
@@ -2417,7 +2388,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B53">
@@ -2425,7 +2396,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B54">
@@ -2433,7 +2404,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B55">
@@ -2441,7 +2412,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B56">
@@ -2449,7 +2420,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B57">
@@ -2457,7 +2428,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B58">
@@ -2465,7 +2436,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B59">
@@ -2473,7 +2444,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B60">
@@ -2481,7 +2452,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B61">
@@ -2489,7 +2460,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B62">
@@ -2497,7 +2468,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B63">
@@ -2505,7 +2476,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B64">
@@ -2513,7 +2484,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B65">
@@ -2521,7 +2492,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B66">
@@ -2529,7 +2500,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B67">
@@ -2537,7 +2508,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B68">
@@ -2545,7 +2516,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B69">
@@ -2553,7 +2524,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B70">
@@ -2561,7 +2532,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B71">
@@ -2569,7 +2540,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B72">
@@ -2577,7 +2548,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B73">
@@ -2585,7 +2556,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B74">
@@ -2593,7 +2564,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B75">
@@ -2601,7 +2572,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B76">
@@ -2609,7 +2580,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B77">
@@ -2617,7 +2588,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B78">
@@ -2625,7 +2596,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B79">
@@ -2633,7 +2604,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B80">
@@ -2641,7 +2612,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B81">
@@ -2649,7 +2620,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B82">
@@ -2657,7 +2628,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B83">
@@ -2665,7 +2636,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B84">
@@ -2673,7 +2644,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B85">
@@ -2681,7 +2652,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B86">
@@ -2689,7 +2660,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B87">
@@ -2697,7 +2668,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B88">
@@ -2705,7 +2676,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B89">
@@ -2713,7 +2684,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B90">
@@ -2721,7 +2692,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B91">
@@ -2729,7 +2700,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B92">
@@ -2737,7 +2708,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B93">
@@ -2745,7 +2716,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B94">
@@ -2753,7 +2724,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B95">
@@ -2761,7 +2732,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B96">
@@ -2769,7 +2740,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B97">
@@ -2777,7 +2748,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B98">
@@ -2785,7 +2756,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B99">
@@ -2793,7 +2764,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B100">
@@ -2801,7 +2772,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B101">
@@ -2809,7 +2780,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B102">
@@ -2817,7 +2788,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B103">
@@ -2825,7 +2796,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B104">
@@ -2833,7 +2804,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B105">
@@ -2841,7 +2812,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B106">
@@ -2849,7 +2820,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B107">
@@ -2857,7 +2828,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B108">
@@ -2865,7 +2836,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B109">
@@ -2873,7 +2844,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B110">
@@ -2881,7 +2852,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B111">
@@ -2889,7 +2860,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B112">
@@ -2897,7 +2868,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B113">
@@ -2905,7 +2876,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B114">
@@ -2913,7 +2884,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B115">
@@ -2921,7 +2892,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B116">
@@ -2929,7 +2900,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B117">
@@ -2937,7 +2908,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B118">
@@ -2945,7 +2916,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B119">
@@ -2953,7 +2924,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B120">
@@ -2961,7 +2932,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B121">
@@ -2969,7 +2940,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B122">
@@ -2977,7 +2948,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B123">
@@ -2985,7 +2956,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B124">
@@ -2993,7 +2964,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B125">
@@ -3001,7 +2972,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B126">
@@ -3009,7 +2980,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="A127" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B127">
@@ -3017,7 +2988,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="A128" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B128">
@@ -3025,7 +2996,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="A129" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B129">
@@ -3033,7 +3004,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="A130" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B130">
@@ -3041,7 +3012,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="A131" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B131">
@@ -3049,7 +3020,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="A132" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B132">
@@ -3057,7 +3028,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="A133" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B133">
@@ -3065,7 +3036,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="A134" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B134">
@@ -3073,7 +3044,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="A135" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B135">
@@ -3081,7 +3052,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="A136" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B136">
@@ -3089,7 +3060,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="A137" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B137">
@@ -3097,7 +3068,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="A138" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B138">
@@ -3105,7 +3076,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="A139" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B139">
@@ -3113,7 +3084,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="A140" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B140">
@@ -3121,7 +3092,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="A141" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B141">
@@ -3129,7 +3100,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B142">
@@ -3137,7 +3108,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="A143" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B143">
@@ -3145,7 +3116,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="A144" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B144">
@@ -3153,7 +3124,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="A145" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B145">
@@ -3161,7 +3132,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="A146" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B146">
@@ -3169,7 +3140,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="A147" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B147">
@@ -3177,7 +3148,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="A148" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B148">
@@ -3185,7 +3156,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="A149" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B149">
@@ -3193,7 +3164,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="A150" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B150">
@@ -3201,7 +3172,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="A151" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B151">
@@ -3209,7 +3180,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="A152" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B152">
@@ -3217,7 +3188,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="A153" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B153">
@@ -3225,7 +3196,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="A154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B154">
@@ -3233,7 +3204,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="A155" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B155">
@@ -3241,7 +3212,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="A156" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B156">
@@ -3249,7 +3220,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="A157" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B157">
@@ -3257,7 +3228,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="A158" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B158">
@@ -3265,7 +3236,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="A159" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B159">
@@ -3273,7 +3244,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="A160" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B160">
@@ -3281,7 +3252,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="A161" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B161">
@@ -3289,7 +3260,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="A162" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B162">
@@ -3297,7 +3268,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="A163" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B163">
@@ -3305,7 +3276,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="A164" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B164">
@@ -3313,7 +3284,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="A165" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B165">
@@ -3321,7 +3292,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="A166" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B166">
@@ -3329,7 +3300,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="A167" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B167">
@@ -3337,7 +3308,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="A168" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B168">
@@ -3345,7 +3316,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="A169" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B169">
@@ -3353,7 +3324,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="A170" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B170">
@@ -3361,7 +3332,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="A171" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B171">
@@ -3369,7 +3340,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B172">
@@ -3377,7 +3348,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="A173" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B173">
@@ -3385,7 +3356,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="A174" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B174">
@@ -3393,7 +3364,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="A175" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B175">
@@ -3401,7 +3372,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="A176" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B176">
@@ -3409,7 +3380,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="A177" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B177">
@@ -3417,7 +3388,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="A178" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B178">
@@ -3425,7 +3396,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="A179" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B179">
@@ -3433,7 +3404,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B180">
@@ -3441,7 +3412,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="A181" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B181">
@@ -3449,7 +3420,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B182">
@@ -3457,7 +3428,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+      <c r="A183" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B183">
@@ -3465,7 +3436,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="A184" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B184">
@@ -3473,7 +3444,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="A185" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B185">
@@ -3481,7 +3452,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="A186" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B186">
@@ -3489,7 +3460,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="A187" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B187">
@@ -3497,7 +3468,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="A188" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B188">
@@ -3505,7 +3476,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="A189" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B189">
@@ -3513,7 +3484,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="A190" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B190">
@@ -3521,7 +3492,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="A191" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B191">
@@ -3529,7 +3500,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="A192" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B192">
@@ -3537,7 +3508,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+      <c r="A193" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B193">
@@ -3545,7 +3516,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="A194" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B194">
@@ -3553,7 +3524,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="A195" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B195">
@@ -3561,7 +3532,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="A196" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B196">
@@ -3569,7 +3540,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="A197" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B197">
@@ -3577,7 +3548,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="A198" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B198">
@@ -3585,7 +3556,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="A199" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B199">
@@ -3593,7 +3564,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="A200" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B200">
@@ -3601,15 +3572,15 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="A201" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="A202" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B202">
@@ -3617,7 +3588,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+      <c r="A203" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B203">
@@ -3625,7 +3596,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="A204" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B204">
@@ -3633,7 +3604,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="A205" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B205">
@@ -3641,7 +3612,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="A206" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B206">
@@ -3649,7 +3620,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B207">
@@ -3657,7 +3628,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="A208" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B208">
@@ -3665,7 +3636,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+      <c r="A209" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B209">
@@ -3673,7 +3644,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="A210" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B210">
@@ -3681,7 +3652,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="A211" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B211">
@@ -3689,7 +3660,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="A212" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B212">
@@ -3697,7 +3668,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="A213" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B213">
@@ -3705,7 +3676,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="A214" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B214">
@@ -3713,7 +3684,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="A215" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B215">
@@ -3721,7 +3692,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="A216" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B216">
@@ -3729,7 +3700,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="A217" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B217">
@@ -3737,7 +3708,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="A218" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B218">
@@ -3745,7 +3716,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+      <c r="A219" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B219">
@@ -3753,7 +3724,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="A220" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B220">
@@ -3761,7 +3732,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="A221" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B221">
@@ -3769,7 +3740,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+      <c r="A222" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B222">
@@ -3777,7 +3748,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="A223" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B223">
@@ -3785,7 +3756,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="A224" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B224">
@@ -3793,7 +3764,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="A225" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B225">
@@ -3801,7 +3772,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="A226" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B226">
@@ -3809,7 +3780,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="A227" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B227">
@@ -3817,7 +3788,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="A228" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B228">
@@ -3825,7 +3796,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+      <c r="A229" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B229">
@@ -3833,7 +3804,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="A230" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B230">
@@ -3841,7 +3812,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="A231" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B231">
@@ -3849,7 +3820,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="A232" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B232">
@@ -3857,7 +3828,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="A233" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B233">
@@ -3865,7 +3836,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="A234" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B234">
@@ -3873,7 +3844,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+      <c r="A235" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B235">
@@ -3881,7 +3852,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="A236" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B236">
@@ -3889,7 +3860,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="A237" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B237">
@@ -3897,7 +3868,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+      <c r="A238" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B238">
@@ -3905,7 +3876,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="A239" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B239">
@@ -3913,7 +3884,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="A240" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B240">
@@ -3921,7 +3892,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+      <c r="A241" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B241">
@@ -3929,7 +3900,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+      <c r="A242" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B242">
@@ -3937,7 +3908,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+      <c r="A243" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B243">
@@ -3945,7 +3916,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+      <c r="A244" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B244">
@@ -3953,7 +3924,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+      <c r="A245" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B245">
@@ -3961,7 +3932,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+      <c r="A246" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B246">
@@ -3969,7 +3940,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+      <c r="A247" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B247">
@@ -3977,7 +3948,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+      <c r="A248" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B248">
@@ -3985,7 +3956,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B249">
@@ -3993,7 +3964,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+      <c r="A250" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B250">
@@ -4001,7 +3972,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+      <c r="A251" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B251">
@@ -4009,7 +3980,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+      <c r="A252" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B252">
@@ -4017,7 +3988,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+      <c r="A253" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B253">
@@ -4025,7 +3996,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+      <c r="A254" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B254">
@@ -4033,7 +4004,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+      <c r="A255" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B255">
@@ -4041,7 +4012,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
+      <c r="A256" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B256">
@@ -4049,7 +4020,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
+      <c r="A257" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B257">
@@ -4057,7 +4028,7 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
+      <c r="A258" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B258">
@@ -4065,7 +4036,7 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
+      <c r="A259" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B259">
@@ -4073,7 +4044,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
+      <c r="A260" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B260">
@@ -4081,7 +4052,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
+      <c r="A261" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B261">
@@ -4089,7 +4060,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
+      <c r="A262" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B262">
@@ -4097,7 +4068,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
+      <c r="A263" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B263">
@@ -4105,7 +4076,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
+      <c r="A264" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B264">
@@ -4113,7 +4084,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
+      <c r="A265" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B265">
@@ -4121,7 +4092,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
+      <c r="A266" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B266">
@@ -4129,7 +4100,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
+      <c r="A267" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B267">
@@ -4137,7 +4108,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
+      <c r="A268" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B268">
@@ -4145,7 +4116,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
+      <c r="A269" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B269">
@@ -4153,7 +4124,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
+      <c r="A270" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B270">
@@ -4161,7 +4132,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
+      <c r="A271" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B271">
@@ -4169,7 +4140,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
+      <c r="A272" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B272">
@@ -4177,7 +4148,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="A273" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B273">
@@ -4185,7 +4156,7 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
+      <c r="A274" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B274">
@@ -4193,7 +4164,7 @@
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
+      <c r="A275" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B275">
@@ -4201,7 +4172,7 @@
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
+      <c r="A276" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B276">
@@ -4209,7 +4180,7 @@
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
+      <c r="A277" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B277">
@@ -4217,7 +4188,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
+      <c r="A278" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B278">
@@ -4225,7 +4196,7 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
+      <c r="A279" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B279">
@@ -4233,7 +4204,7 @@
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
+      <c r="A280" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B280">
@@ -4241,7 +4212,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
+      <c r="A281" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B281">
@@ -4249,7 +4220,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
+      <c r="A282" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B282">
@@ -4257,7 +4228,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
+      <c r="A283" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B283">
@@ -4265,7 +4236,7 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
+      <c r="A284" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B284">
@@ -4273,7 +4244,7 @@
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
+      <c r="A285" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B285">
@@ -4281,7 +4252,7 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
+      <c r="A286" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B286">
@@ -4289,7 +4260,7 @@
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
+      <c r="A287" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B287">
@@ -4297,7 +4268,7 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
+      <c r="A288" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B288">
@@ -4305,7 +4276,7 @@
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
+      <c r="A289" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B289">
@@ -4313,7 +4284,7 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
+      <c r="A290" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B290">
@@ -4321,7 +4292,7 @@
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
+      <c r="A291" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B291">
@@ -4329,7 +4300,7 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
+      <c r="A292" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B292">
@@ -4337,7 +4308,7 @@
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
+      <c r="A293" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B293">
@@ -4345,7 +4316,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
+      <c r="A294" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B294">
@@ -4353,7 +4324,7 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
+      <c r="A295" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B295">
@@ -4361,7 +4332,7 @@
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
+      <c r="A296" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B296">
@@ -4369,7 +4340,7 @@
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
+      <c r="A297" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B297">
@@ -4377,7 +4348,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
+      <c r="A298" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B298">
@@ -4385,7 +4356,7 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
+      <c r="A299" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B299">
@@ -4393,7 +4364,7 @@
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+      <c r="A300" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B300">
@@ -4401,7 +4372,7 @@
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
+      <c r="A301" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B301">
@@ -4426,8 +4397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4440,7 +4411,7 @@
       <c r="A1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -6236,18 +6207,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6270,18 +6241,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFB985-A0F1-416C-A873-B11530978428}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93FC51A9-F6BF-4E84-8BE0-34C374C2EFEE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AFB985-A0F1-416C-A873-B11530978428}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>